--- a/TEMPLATE_HRD_PHIEU THONG TIN NLD_200505.xlsx
+++ b/TEMPLATE_HRD_PHIEU THONG TIN NLD_200505.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Màu xe</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>THÀO A VẢNG</t>
+  </si>
+  <si>
+    <t>TDAV0042</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
         <xdr:cNvPr id="2" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{055E37A3-611A-4A1F-846B-00106E6FC076}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055E37A3-611A-4A1F-846B-00106E6FC076}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -765,7 +768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,7 +779,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,7 +842,9 @@
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>25</v>
       </c>

--- a/TEMPLATE_HRD_PHIEU THONG TIN NLD_200505.xlsx
+++ b/TEMPLATE_HRD_PHIEU THONG TIN NLD_200505.xlsx
@@ -444,7 +444,7 @@
         <xdr:cNvPr id="2" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055E37A3-611A-4A1F-846B-00106E6FC076}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{055E37A3-611A-4A1F-846B-00106E6FC076}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -768,7 +768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/TEMPLATE_HRD_PHIEU THONG TIN NLD_200505.xlsx
+++ b/TEMPLATE_HRD_PHIEU THONG TIN NLD_200505.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>Màu xe</t>
   </si>
@@ -232,13 +232,55 @@
   </si>
   <si>
     <t>TDAV0042</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>063416452</t>
+  </si>
+  <si>
+    <t>Lào Cai</t>
+  </si>
+  <si>
+    <t>CA Lào Cai</t>
+  </si>
+  <si>
+    <t>Ngải Thầu, Bát Xát, Lào Cai</t>
+  </si>
+  <si>
+    <t>Mông</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>Ngõ 46 Bằng B, Hoàng Liệt, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>0948604695</t>
+  </si>
+  <si>
+    <t>vang.thao@tda.company</t>
+  </si>
+  <si>
+    <t>Chưa có</t>
+  </si>
+  <si>
+    <t>Ngải Thầu</t>
+  </si>
+  <si>
+    <t>Bát Xát</t>
+  </si>
+  <si>
+    <t>Trạm Y Tế Xã Ngải Thầu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +319,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -352,10 +402,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -407,8 +458,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,7 +499,7 @@
         <xdr:cNvPr id="2" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{055E37A3-611A-4A1F-846B-00106E6FC076}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055E37A3-611A-4A1F-846B-00106E6FC076}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -768,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -858,7 +913,9 @@
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9">
+        <v>44153</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
@@ -872,7 +929,9 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
@@ -886,7 +945,9 @@
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9">
+        <v>35934</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
@@ -900,7 +961,9 @@
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
@@ -914,7 +977,9 @@
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9">
+        <v>42214</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
@@ -928,7 +993,9 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="D11" s="17" t="s">
         <v>32</v>
       </c>
@@ -942,7 +1009,9 @@
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
@@ -956,7 +1025,9 @@
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
@@ -970,7 +1041,9 @@
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
@@ -980,7 +1053,9 @@
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="D15" s="17" t="s">
         <v>34</v>
       </c>
@@ -990,7 +1065,9 @@
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1000,7 +1077,9 @@
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="D17" s="4" t="s">
         <v>26</v>
       </c>
@@ -1010,7 +1089,9 @@
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="D18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1032,7 +1113,9 @@
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D21" s="13" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1129,9 @@
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="D22" s="11" t="s">
         <v>50</v>
       </c>
@@ -1074,7 +1159,9 @@
       <c r="A24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="D24" s="11" t="s">
         <v>52</v>
       </c>
@@ -1088,7 +1175,9 @@
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="D25" s="11" t="s">
         <v>3</v>
       </c>
@@ -1098,7 +1187,9 @@
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="D26" s="4" t="s">
         <v>54</v>
       </c>
@@ -1108,7 +1199,9 @@
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="D27" s="4" t="s">
         <v>55</v>
       </c>
@@ -1177,8 +1270,11 @@
       <formula1>"Con dưới 18 tuổi, Con trên 18t đang theo học các bậc học, Vợ/Chồng, Bố/Mẹ hết độ tuổi lao động, Khác"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/TEMPLATE_HRD_PHIEU THONG TIN NLD_200505.xlsx
+++ b/TEMPLATE_HRD_PHIEU THONG TIN NLD_200505.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>Màu xe</t>
   </si>
@@ -246,18 +246,12 @@
     <t>CA Lào Cai</t>
   </si>
   <si>
-    <t>Ngải Thầu, Bát Xát, Lào Cai</t>
-  </si>
-  <si>
     <t>Mông</t>
   </si>
   <si>
     <t>Không</t>
   </si>
   <si>
-    <t>Ngõ 46 Bằng B, Hoàng Liệt, Hoàng Mai, Hà Nội</t>
-  </si>
-  <si>
     <t>0948604695</t>
   </si>
   <si>
@@ -267,13 +261,64 @@
     <t>Chưa có</t>
   </si>
   <si>
-    <t>Ngải Thầu</t>
-  </si>
-  <si>
     <t>Bát Xát</t>
   </si>
   <si>
     <t>Trạm Y Tế Xã Ngải Thầu</t>
+  </si>
+  <si>
+    <t>A Lù, Bát Xát, Lào Cai</t>
+  </si>
+  <si>
+    <t>A Lù</t>
+  </si>
+  <si>
+    <t>Sinh viên</t>
+  </si>
+  <si>
+    <t>Kỹ Thuật Phần Mềm</t>
+  </si>
+  <si>
+    <t>ĐH CNTT &amp; TT- ĐH Thái Nguyên</t>
+  </si>
+  <si>
+    <t>5 năm</t>
+  </si>
+  <si>
+    <t>Java, Kotlin, Flutter, C/C++, C#, PHP</t>
+  </si>
+  <si>
+    <t>Java, C/C++, C#, PHP</t>
+  </si>
+  <si>
+    <t>Tiếng Anh</t>
+  </si>
+  <si>
+    <t>04004906801</t>
+  </si>
+  <si>
+    <t>THÀO A MONG</t>
+  </si>
+  <si>
+    <t>SÙNG THỊ XẾ</t>
+  </si>
+  <si>
+    <t>Độc thân</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>YAMAHA SIRIUS</t>
+  </si>
+  <si>
+    <t>Đỏ - Đen</t>
+  </si>
+  <si>
+    <t>24B1 - 455.90</t>
+  </si>
+  <si>
+    <t>Số Nhà 70, Ngõ 46 Bằng B, Hoàng Liệt, Hoàng Mai, Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -446,6 +491,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,9 +505,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,7 +544,7 @@
         <xdr:cNvPr id="2" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055E37A3-611A-4A1F-846B-00106E6FC076}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{055E37A3-611A-4A1F-846B-00106E6FC076}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -823,7 +868,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -833,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -852,14 +897,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="10" t="s">
         <v>59</v>
       </c>
@@ -884,14 +929,16 @@
       <c r="B4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -903,11 +950,15 @@
       <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>1972</v>
+      </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -919,11 +970,15 @@
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -935,11 +990,15 @@
       <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>1976</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -951,11 +1010,15 @@
       <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -967,7 +1030,9 @@
       <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>39</v>
       </c>
@@ -983,7 +1048,9 @@
       <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
@@ -996,10 +1063,10 @@
       <c r="B11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="19"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1010,12 +1077,14 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="G12" s="4" t="s">
         <v>36</v>
       </c>
@@ -1026,23 +1095,23 @@
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>31</v>
@@ -1054,19 +1123,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>33</v>
@@ -1078,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>26</v>
@@ -1089,8 +1158,8 @@
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>75</v>
+      <c r="B18" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>27</v>
@@ -1114,23 +1183,27 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="G21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>50</v>
@@ -1139,7 +1212,9 @@
       <c r="G22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1153,14 +1228,16 @@
       <c r="G23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>52</v>
@@ -1169,14 +1246,16 @@
       <c r="G24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>3</v>
@@ -1188,7 +1267,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>54</v>
